--- a/Informativos/Aulas_Links_e_Datas_de_Exercícios.xlsx
+++ b/Informativos/Aulas_Links_e_Datas_de_Exercícios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\GitHub\Segundo-Semestre-unip\Informativos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BA6700C-40F7-4A68-9B23-2BAEF7CDDAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE77EE6-9A71-45D8-957C-3F657DA668AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B392B0C-D6AE-496D-B771-9E3827DB5614}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Matéria</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Eliane Oliveira Santiago</t>
   </si>
   <si>
-    <t>Higor</t>
-  </si>
-  <si>
     <t>Semana 1</t>
   </si>
   <si>
@@ -70,6 +67,12 @@
   </si>
   <si>
     <t>https://classroom.google.com/c/MTQ3OTA5ODA0MzEz?cjc=z4kdyz4</t>
+  </si>
+  <si>
+    <t>Higor A. Delsoto</t>
+  </si>
+  <si>
+    <t>https://classroom.google.com/c/MTQ3OTc2OTgxNjM5?cjc=ydzlrsn</t>
   </si>
 </sst>
 </file>
@@ -124,8 +127,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -137,6 +143,9 @@
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -457,7 +466,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -468,98 +477,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>0.35069444444444442</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6">
         <v>44060</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3">
         <v>0.41666666666666669</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5">
+      <c r="E3" s="4"/>
+      <c r="F3" s="6">
         <v>44060</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>0.35069444444444442</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5">
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6">
         <v>44061</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3">
         <v>0.41666666666666669</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="E5" s="1"/>
+      <c r="F5" s="6">
         <v>44061</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{F971D203-0AA1-4679-B94E-6DBCA653CA0E}"/>
@@ -567,8 +581,9 @@
     <hyperlink ref="D2" r:id="rId3" xr:uid="{C6D1BFA7-66CE-474A-B6C4-94EF4288F879}"/>
     <hyperlink ref="D3" r:id="rId4" xr:uid="{BFD31938-CB61-4E9E-8B9B-6025013F8E6C}"/>
     <hyperlink ref="E2" r:id="rId5" xr:uid="{5BE41092-6A5B-4EB1-AF26-EF01BCE5F841}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{B956DA71-2932-47B5-A3E2-ACD64A96A263}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Informativos/Aulas_Links_e_Datas_de_Exercícios.xlsx
+++ b/Informativos/Aulas_Links_e_Datas_de_Exercícios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\GitHub\Segundo-Semestre-unip\Informativos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE77EE6-9A71-45D8-957C-3F657DA668AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57220B5-D935-4C4A-B48B-04432AD02AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B392B0C-D6AE-496D-B771-9E3827DB5614}"/>
   </bookViews>
@@ -132,19 +132,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,7 +466,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -477,94 +477,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0.35069444444444442</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>44060</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2">
         <v>0.41666666666666669</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6">
+      <c r="E3" s="5"/>
+      <c r="F3" s="4">
         <v>44060</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.35069444444444442</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>44061</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2">
         <v>0.41666666666666669</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="6">
+      <c r="E5" s="8"/>
+      <c r="F5" s="4">
         <v>44061</v>
       </c>
     </row>

--- a/Informativos/Aulas_Links_e_Datas_de_Exercícios.xlsx
+++ b/Informativos/Aulas_Links_e_Datas_de_Exercícios.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\GitHub\Segundo-Semestre-unip\Informativos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Segundo-Semestre-unip\Informativos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57220B5-D935-4C4A-B48B-04432AD02AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B392B0C-D6AE-496D-B771-9E3827DB5614}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Aulas" sheetId="1" r:id="rId1"/>
@@ -78,8 +77,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -99,8 +98,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +114,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -127,7 +155,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -145,6 +173,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,31 +502,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5F0132-CC32-4F83-91F0-0A921A48D74F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="3" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="3" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -496,7 +536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -516,7 +556,7 @@
         <v>44060</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="2">
         <v>0.41666666666666669</v>
@@ -532,7 +572,7 @@
         <v>44060</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -552,7 +592,7 @@
         <v>44061</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="2">
         <v>0.41666666666666669</v>
@@ -576,12 +616,12 @@
     <mergeCell ref="E4:E5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{F971D203-0AA1-4679-B94E-6DBCA653CA0E}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{209FBBC2-E626-4D7B-9633-1F7463F5B464}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{C6D1BFA7-66CE-474A-B6C4-94EF4288F879}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{BFD31938-CB61-4E9E-8B9B-6025013F8E6C}"/>
-    <hyperlink ref="E2" r:id="rId5" xr:uid="{5BE41092-6A5B-4EB1-AF26-EF01BCE5F841}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{B956DA71-2932-47B5-A3E2-ACD64A96A263}"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>

--- a/Informativos/Aulas_Links_e_Datas_de_Exercícios.xlsx
+++ b/Informativos/Aulas_Links_e_Datas_de_Exercícios.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="1080" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Aulas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Matéria</t>
   </si>
@@ -72,6 +72,57 @@
   </si>
   <si>
     <t>https://classroom.google.com/c/MTQ3OTc2OTgxNjM5?cjc=ydzlrsn</t>
+  </si>
+  <si>
+    <t>https://classroom.google.com/c/MTUxNzMxMzA2NDE4?cjc=qzqa6ok</t>
+  </si>
+  <si>
+    <t>https://zoom.us/j/93887197663</t>
+  </si>
+  <si>
+    <t>https://zoom.us/j/93002058443</t>
+  </si>
+  <si>
+    <t>Semana impar</t>
+  </si>
+  <si>
+    <t>https://zoom.us/j/92229832578</t>
+  </si>
+  <si>
+    <t>https://zoom.us/j/98507116066</t>
+  </si>
+  <si>
+    <t>Introdução a Programação Estruturada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lógica de Programação e Algoritmos (LAB)</t>
+  </si>
+  <si>
+    <t>https://zoom.us/j/99831250028</t>
+  </si>
+  <si>
+    <t>https://zoom.us/j/96214476566</t>
+  </si>
+  <si>
+    <t>Circuitos Digitais</t>
+  </si>
+  <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>Segunda</t>
+  </si>
+  <si>
+    <t>Terça</t>
+  </si>
+  <si>
+    <t>Quarta</t>
+  </si>
+  <si>
+    <t>Quinta</t>
+  </si>
+  <si>
+    <t>Sexta</t>
   </si>
 </sst>
 </file>
@@ -104,7 +155,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +191,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -155,26 +218,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -186,6 +235,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -503,127 +571,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="3" max="4" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="60.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="10">
         <v>0.35069444444444442</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4">
+      <c r="H2" s="2">
         <v>44060</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4">
+      <c r="F3" s="11"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="2">
         <v>44060</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="10">
         <v>0.35069444444444442</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4">
+      <c r="H4" s="2">
         <v>44061</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="4">
+      <c r="F5" s="11"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="2">
         <v>44061</v>
       </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="E2" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="G2" r:id="rId5"/>
+    <hyperlink ref="G4" r:id="rId6"/>
+    <hyperlink ref="E7" r:id="rId7"/>
+    <hyperlink ref="E6" r:id="rId8"/>
+    <hyperlink ref="E11" r:id="rId9"/>
+    <hyperlink ref="E8" r:id="rId10"/>
+    <hyperlink ref="E9" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Informativos/Aulas_Links_e_Datas_de_Exercícios.xlsx
+++ b/Informativos/Aulas_Links_e_Datas_de_Exercícios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\GitHub\Segundo-Semestre-unip\Informativos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57220B5-D935-4C4A-B48B-04432AD02AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7980BE-F335-4F4A-8069-63ABBFC3B2BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B392B0C-D6AE-496D-B771-9E3827DB5614}"/>
   </bookViews>
@@ -24,8 +24,118 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>gabriel toth</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{CF08F952-B993-4DAB-A84A-1EF472EF56FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Toth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Propostos ao todo 3 Exercícios com Operadores de Portugol</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{6A97FF45-9258-41E2-B2D9-B8DF25F14007}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Toth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Propostos 22 Exercícios com Operadores no Portugol.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{D82C8271-EBA9-4870-9C21-254E11D2FDC8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Toth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Definido os Exercíos a serem entregues e quais serão.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{22D4F896-FF63-4D96-9DC4-CE5A8EF3756B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>+Gabriel Toth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Com a inclusão dos tópicos:
+Exercícios com operadores
+'' com Estrutura de Decisão
+'' com Estrutura de Múltipla Escolha
+'' com Estrutura de Repetição</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Matéria</t>
   </si>
@@ -36,12 +146,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Algoritmo e Lógica de Programação</t>
-  </si>
-  <si>
-    <t>Circuitos Eletrônicos</t>
-  </si>
-  <si>
     <t>https://zoom.us/j/94534367630</t>
   </si>
   <si>
@@ -73,13 +177,136 @@
   </si>
   <si>
     <t>https://classroom.google.com/c/MTQ3OTc2OTgxNjM5?cjc=ydzlrsn</t>
+  </si>
+  <si>
+    <t>https://zoom.us/j/99831250028</t>
+  </si>
+  <si>
+    <t>Lógica de Programação e Algoritmo</t>
+  </si>
+  <si>
+    <t>Lógica de Programação e Algoritmo (LAB)</t>
+  </si>
+  <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>Todas</t>
+  </si>
+  <si>
+    <t>Par</t>
+  </si>
+  <si>
+    <t>Impar</t>
+  </si>
+  <si>
+    <t>Introdução a Programação Estruturada</t>
+  </si>
+  <si>
+    <t>Introdução a Programação Estruturada (LAB)</t>
+  </si>
+  <si>
+    <t>Flavio Sousa Silva</t>
+  </si>
+  <si>
+    <t>Marcos A R da S Junior</t>
+  </si>
+  <si>
+    <t>https://zoom.us/j/93002058443</t>
+  </si>
+  <si>
+    <t>https://zoom.us/j/93887197663</t>
+  </si>
+  <si>
+    <t>https://zoom.us/j/92229832578</t>
+  </si>
+  <si>
+    <t>https://classroom.google.com/c/MTUxNzMxMzA2NDE4?cjc=qzqa6ok</t>
+  </si>
+  <si>
+    <t>https://classroom.google.com/c/MTUxNzg5Mzc3MDE0?cjc=vlv2qp5</t>
+  </si>
+  <si>
+    <t>https://classroom.google.com/c/MTUyNjk0NTgxNjY0?cjc=abn7yl5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Circuitos Digitais Lógicos</t>
+  </si>
+  <si>
+    <t>Circuitos Digitais Lógicos (LAB)</t>
+  </si>
+  <si>
+    <t>https://zoom.us/j/96214476566</t>
+  </si>
+  <si>
+    <t>Semana 2</t>
+  </si>
+  <si>
+    <t>Semana 3</t>
+  </si>
+  <si>
+    <t>Semana 4</t>
+  </si>
+  <si>
+    <t>Semana 5</t>
+  </si>
+  <si>
+    <t>Semana 6</t>
+  </si>
+  <si>
+    <t>Semana 7</t>
+  </si>
+  <si>
+    <t>Semana 8</t>
+  </si>
+  <si>
+    <t>Semana 9</t>
+  </si>
+  <si>
+    <t>Semana 10</t>
+  </si>
+  <si>
+    <t>Semana 11</t>
+  </si>
+  <si>
+    <t>Semana 12</t>
+  </si>
+  <si>
+    <t>Semana 13</t>
+  </si>
+  <si>
+    <t>Semana 14</t>
+  </si>
+  <si>
+    <t>Semana 15</t>
+  </si>
+  <si>
+    <t>Semana 16</t>
+  </si>
+  <si>
+    <t>Semana 17</t>
+  </si>
+  <si>
+    <t>https://zoom.us/j/97169171013</t>
+  </si>
+  <si>
+    <t>https://zoom.us/j/94148244295</t>
+  </si>
+  <si>
+    <t>Pedro Henrique Petri Xavier</t>
+  </si>
+  <si>
+    <t>Geometria Analítica</t>
+  </si>
+  <si>
+    <t>Lógica Matemática</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -99,8 +326,44 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF9C5700"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF9C0006"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF002060"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +373,28 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -122,21 +407,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="11" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -144,14 +430,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="7" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="8" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutro" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Previsivo" xfId="5" xr:uid="{ECAE1B6F-EE64-4697-937B-54A8DF7DF6F6}"/>
+    <cellStyle name="Ruim" xfId="4" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,128 +787,997 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5F0132-CC32-4F83-91F0-0A921A48D74F}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5F0132-CC32-4F83-91F0-0A921A48D74F}">
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="3" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
+    <col min="16" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44060</v>
+      </c>
+      <c r="H2" s="10">
+        <v>44067</v>
+      </c>
+      <c r="I2" s="10">
+        <v>44074</v>
+      </c>
+      <c r="J2" s="10">
+        <v>44081</v>
+      </c>
+      <c r="K2" s="10">
+        <v>44088</v>
+      </c>
+      <c r="L2" s="17">
+        <v>44095</v>
+      </c>
+      <c r="M2" s="18">
+        <v>44102</v>
+      </c>
+      <c r="N2" s="17">
+        <v>44109</v>
+      </c>
+      <c r="O2" s="18">
+        <v>44116</v>
+      </c>
+      <c r="P2" s="17">
+        <v>44123</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>44130</v>
+      </c>
+      <c r="R2" s="17">
+        <v>44137</v>
+      </c>
+      <c r="S2" s="18">
+        <v>44144</v>
+      </c>
+      <c r="T2" s="17">
+        <v>44151</v>
+      </c>
+      <c r="U2" s="18">
+        <v>44158</v>
+      </c>
+      <c r="V2" s="17">
+        <v>44165</v>
+      </c>
+      <c r="W2" s="18">
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="21">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="2">
+        <v>44060</v>
+      </c>
+      <c r="H3" s="10">
+        <v>44067</v>
+      </c>
+      <c r="I3" s="10">
+        <v>44074</v>
+      </c>
+      <c r="J3" s="10">
+        <v>44081</v>
+      </c>
+      <c r="K3" s="10">
+        <v>44088</v>
+      </c>
+      <c r="L3" s="17">
+        <v>44095</v>
+      </c>
+      <c r="M3" s="18">
+        <v>44102</v>
+      </c>
+      <c r="N3" s="17">
+        <v>44109</v>
+      </c>
+      <c r="O3" s="18">
+        <v>44116</v>
+      </c>
+      <c r="P3" s="17">
+        <v>44123</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>44130</v>
+      </c>
+      <c r="R3" s="17">
+        <v>44137</v>
+      </c>
+      <c r="S3" s="18">
+        <v>44144</v>
+      </c>
+      <c r="T3" s="17">
+        <v>44151</v>
+      </c>
+      <c r="U3" s="18">
+        <v>44158</v>
+      </c>
+      <c r="V3" s="17">
+        <v>44165</v>
+      </c>
+      <c r="W3" s="18">
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="E4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44061</v>
+      </c>
+      <c r="H4" s="16">
+        <v>44068</v>
+      </c>
+      <c r="I4" s="2">
+        <v>44075</v>
+      </c>
+      <c r="J4" s="16">
+        <v>44082</v>
+      </c>
+      <c r="K4" s="2">
+        <v>44089</v>
+      </c>
+      <c r="L4" s="16">
+        <v>44096</v>
+      </c>
+      <c r="M4" s="17">
+        <v>44103</v>
+      </c>
+      <c r="N4" s="16">
+        <v>44110</v>
+      </c>
+      <c r="O4" s="17">
+        <v>44117</v>
+      </c>
+      <c r="P4" s="16">
+        <v>44124</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>44131</v>
+      </c>
+      <c r="R4" s="16">
+        <v>44138</v>
+      </c>
+      <c r="S4" s="17">
+        <v>44145</v>
+      </c>
+      <c r="T4" s="16">
+        <v>44152</v>
+      </c>
+      <c r="U4" s="17">
+        <v>44159</v>
+      </c>
+      <c r="V4" s="16">
+        <v>44166</v>
+      </c>
+      <c r="W4" s="17">
+        <v>44173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="21">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="F5" s="12"/>
+      <c r="G5" s="2">
+        <v>44061</v>
+      </c>
+      <c r="H5" s="16">
+        <v>44068</v>
+      </c>
+      <c r="I5" s="2">
+        <v>44075</v>
+      </c>
+      <c r="J5" s="16">
+        <v>44082</v>
+      </c>
+      <c r="K5" s="2">
+        <v>44089</v>
+      </c>
+      <c r="L5" s="16">
+        <v>44096</v>
+      </c>
+      <c r="M5" s="17">
+        <v>44103</v>
+      </c>
+      <c r="N5" s="16">
+        <v>44110</v>
+      </c>
+      <c r="O5" s="17">
+        <v>44117</v>
+      </c>
+      <c r="P5" s="16">
+        <v>44124</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>44131</v>
+      </c>
+      <c r="R5" s="16">
+        <v>44138</v>
+      </c>
+      <c r="S5" s="17">
+        <v>44145</v>
+      </c>
+      <c r="T5" s="16">
+        <v>44152</v>
+      </c>
+      <c r="U5" s="17">
+        <v>44159</v>
+      </c>
+      <c r="V5" s="16">
+        <v>44166</v>
+      </c>
+      <c r="W5" s="17">
+        <v>44173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="21">
         <v>0.35069444444444442</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4">
-        <v>44060</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2">
+      <c r="C6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="16">
+        <v>44061</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44068</v>
+      </c>
+      <c r="I6" s="16">
+        <v>44075</v>
+      </c>
+      <c r="J6" s="2">
+        <v>44082</v>
+      </c>
+      <c r="K6" s="16">
+        <v>44089</v>
+      </c>
+      <c r="L6" s="17">
+        <v>44096</v>
+      </c>
+      <c r="M6" s="16">
+        <v>44103</v>
+      </c>
+      <c r="N6" s="17">
+        <v>44110</v>
+      </c>
+      <c r="O6" s="16">
+        <v>44117</v>
+      </c>
+      <c r="P6" s="17">
+        <v>44124</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>44131</v>
+      </c>
+      <c r="R6" s="17">
+        <v>44138</v>
+      </c>
+      <c r="S6" s="16">
+        <v>44145</v>
+      </c>
+      <c r="T6" s="17">
+        <v>44152</v>
+      </c>
+      <c r="U6" s="16">
+        <v>44159</v>
+      </c>
+      <c r="V6" s="17">
+        <v>44166</v>
+      </c>
+      <c r="W6" s="16">
+        <v>44173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4">
-        <v>44060</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="C7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="16">
+        <v>44061</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44068</v>
+      </c>
+      <c r="I7" s="16">
+        <v>44075</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44082</v>
+      </c>
+      <c r="K7" s="16">
+        <v>44089</v>
+      </c>
+      <c r="L7" s="17">
+        <v>44096</v>
+      </c>
+      <c r="M7" s="16">
+        <v>44103</v>
+      </c>
+      <c r="N7" s="17">
+        <v>44110</v>
+      </c>
+      <c r="O7" s="16">
+        <v>44117</v>
+      </c>
+      <c r="P7" s="17">
+        <v>44124</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>44131</v>
+      </c>
+      <c r="R7" s="17">
+        <v>44138</v>
+      </c>
+      <c r="S7" s="16">
+        <v>44145</v>
+      </c>
+      <c r="T7" s="17">
+        <v>44152</v>
+      </c>
+      <c r="U7" s="16">
+        <v>44159</v>
+      </c>
+      <c r="V7" s="17">
+        <v>44166</v>
+      </c>
+      <c r="W7" s="16">
+        <v>44173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="21">
         <v>0.35069444444444442</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4">
-        <v>44061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2">
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44062</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44069</v>
+      </c>
+      <c r="I8" s="2">
+        <v>44076</v>
+      </c>
+      <c r="J8" s="2">
+        <v>44083</v>
+      </c>
+      <c r="K8" s="17">
+        <v>44090</v>
+      </c>
+      <c r="L8" s="17">
+        <v>44097</v>
+      </c>
+      <c r="M8" s="19">
+        <v>44104</v>
+      </c>
+      <c r="N8" s="17">
+        <v>44111</v>
+      </c>
+      <c r="O8" s="17">
+        <v>44118</v>
+      </c>
+      <c r="P8" s="17">
+        <v>44125</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>44132</v>
+      </c>
+      <c r="R8" s="17">
+        <v>44139</v>
+      </c>
+      <c r="S8" s="17">
+        <v>44146</v>
+      </c>
+      <c r="T8" s="17">
+        <v>44153</v>
+      </c>
+      <c r="U8" s="17">
+        <v>44160</v>
+      </c>
+      <c r="V8" s="17">
+        <v>44167</v>
+      </c>
+      <c r="W8" s="17">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="4">
-        <v>44061</v>
-      </c>
+      <c r="C9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44062</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44069</v>
+      </c>
+      <c r="I9" s="2">
+        <v>44076</v>
+      </c>
+      <c r="J9" s="2">
+        <v>44083</v>
+      </c>
+      <c r="K9" s="17">
+        <v>44090</v>
+      </c>
+      <c r="L9" s="17">
+        <v>44097</v>
+      </c>
+      <c r="M9" s="19">
+        <v>44104</v>
+      </c>
+      <c r="N9" s="17">
+        <v>44111</v>
+      </c>
+      <c r="O9" s="17">
+        <v>44118</v>
+      </c>
+      <c r="P9" s="17">
+        <v>44125</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>44132</v>
+      </c>
+      <c r="R9" s="17">
+        <v>44139</v>
+      </c>
+      <c r="S9" s="17">
+        <v>44146</v>
+      </c>
+      <c r="T9" s="17">
+        <v>44153</v>
+      </c>
+      <c r="U9" s="17">
+        <v>44160</v>
+      </c>
+      <c r="V9" s="17">
+        <v>44167</v>
+      </c>
+      <c r="W9" s="17">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="21">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44063</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44070</v>
+      </c>
+      <c r="I10" s="2">
+        <v>44077</v>
+      </c>
+      <c r="J10" s="2">
+        <v>44084</v>
+      </c>
+      <c r="K10" s="17">
+        <v>44091</v>
+      </c>
+      <c r="L10" s="17">
+        <v>44098</v>
+      </c>
+      <c r="M10" s="17">
+        <v>44105</v>
+      </c>
+      <c r="N10" s="17">
+        <v>44112</v>
+      </c>
+      <c r="O10" s="17">
+        <v>44119</v>
+      </c>
+      <c r="P10" s="17">
+        <v>44126</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>44133</v>
+      </c>
+      <c r="R10" s="17">
+        <v>44140</v>
+      </c>
+      <c r="S10" s="17">
+        <v>44147</v>
+      </c>
+      <c r="T10" s="17">
+        <v>44154</v>
+      </c>
+      <c r="U10" s="17">
+        <v>44161</v>
+      </c>
+      <c r="V10" s="17">
+        <v>44168</v>
+      </c>
+      <c r="W10" s="17">
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="21">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="2">
+        <v>44063</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44070</v>
+      </c>
+      <c r="I11" s="2">
+        <v>44077</v>
+      </c>
+      <c r="J11" s="2">
+        <v>44084</v>
+      </c>
+      <c r="K11" s="17">
+        <v>44091</v>
+      </c>
+      <c r="L11" s="17">
+        <v>44098</v>
+      </c>
+      <c r="M11" s="17">
+        <v>44105</v>
+      </c>
+      <c r="N11" s="17">
+        <v>44112</v>
+      </c>
+      <c r="O11" s="17">
+        <v>44119</v>
+      </c>
+      <c r="P11" s="17">
+        <v>44126</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>44133</v>
+      </c>
+      <c r="R11" s="17">
+        <v>44140</v>
+      </c>
+      <c r="S11" s="17">
+        <v>44147</v>
+      </c>
+      <c r="T11" s="17">
+        <v>44154</v>
+      </c>
+      <c r="U11" s="17">
+        <v>44161</v>
+      </c>
+      <c r="V11" s="17">
+        <v>44168</v>
+      </c>
+      <c r="W11" s="17">
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="21">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="16">
+        <v>44064</v>
+      </c>
+      <c r="H12" s="16">
+        <v>44071</v>
+      </c>
+      <c r="I12" s="16">
+        <v>44078</v>
+      </c>
+      <c r="J12" s="2">
+        <v>44085</v>
+      </c>
+      <c r="K12" s="6">
+        <v>44092</v>
+      </c>
+      <c r="L12" s="6">
+        <v>44099</v>
+      </c>
+      <c r="M12" s="6">
+        <v>44106</v>
+      </c>
+      <c r="N12" s="6">
+        <v>44113</v>
+      </c>
+      <c r="O12" s="6">
+        <v>44120</v>
+      </c>
+      <c r="P12" s="6">
+        <v>44127</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>44134</v>
+      </c>
+      <c r="R12" s="6">
+        <v>44141</v>
+      </c>
+      <c r="S12" s="6">
+        <v>44148</v>
+      </c>
+      <c r="T12" s="6">
+        <v>44155</v>
+      </c>
+      <c r="U12" s="6">
+        <v>44162</v>
+      </c>
+      <c r="V12" s="6">
+        <v>44169</v>
+      </c>
+      <c r="W12" s="6">
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="16">
+        <v>44064</v>
+      </c>
+      <c r="H13" s="16">
+        <v>44071</v>
+      </c>
+      <c r="I13" s="16">
+        <v>44078</v>
+      </c>
+      <c r="J13" s="2">
+        <v>44085</v>
+      </c>
+      <c r="K13" s="6">
+        <v>44092</v>
+      </c>
+      <c r="L13" s="6">
+        <v>44099</v>
+      </c>
+      <c r="M13" s="6">
+        <v>44106</v>
+      </c>
+      <c r="N13" s="6">
+        <v>44113</v>
+      </c>
+      <c r="O13" s="6">
+        <v>44120</v>
+      </c>
+      <c r="P13" s="6">
+        <v>44127</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>44134</v>
+      </c>
+      <c r="R13" s="6">
+        <v>44141</v>
+      </c>
+      <c r="S13" s="6">
+        <v>44148</v>
+      </c>
+      <c r="T13" s="6">
+        <v>44155</v>
+      </c>
+      <c r="U13" s="6">
+        <v>44162</v>
+      </c>
+      <c r="V13" s="6">
+        <v>44169</v>
+      </c>
+      <c r="W13" s="6">
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K27" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F4:F7"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{F971D203-0AA1-4679-B94E-6DBCA653CA0E}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{209FBBC2-E626-4D7B-9633-1F7463F5B464}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{C6D1BFA7-66CE-474A-B6C4-94EF4288F879}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{BFD31938-CB61-4E9E-8B9B-6025013F8E6C}"/>
-    <hyperlink ref="E2" r:id="rId5" xr:uid="{5BE41092-6A5B-4EB1-AF26-EF01BCE5F841}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{B956DA71-2932-47B5-A3E2-ACD64A96A263}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{F971D203-0AA1-4679-B94E-6DBCA653CA0E}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{209FBBC2-E626-4D7B-9633-1F7463F5B464}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{C6D1BFA7-66CE-474A-B6C4-94EF4288F879}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{BFD31938-CB61-4E9E-8B9B-6025013F8E6C}"/>
+    <hyperlink ref="F2" r:id="rId5" xr:uid="{5BE41092-6A5B-4EB1-AF26-EF01BCE5F841}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{B956DA71-2932-47B5-A3E2-ACD64A96A263}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{D1E20E40-353A-41EE-B4F0-0E9FEEC15C72}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{623DAD49-D294-4218-9074-43E507AC6B07}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{90E40A88-668F-4DD0-947C-AD34838C90FE}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{5F930C4B-B8D6-4B24-A745-95EBABCF5B24}"/>
+    <hyperlink ref="E10" r:id="rId11" xr:uid="{C40855AA-5839-472E-949C-28CF654D5B6D}"/>
+    <hyperlink ref="E11" r:id="rId12" xr:uid="{11718703-7910-4EC2-9937-3D5FE2A10350}"/>
+    <hyperlink ref="F10" r:id="rId13" xr:uid="{96E654E2-5AA0-41C3-8288-9D5C1F91CDF0}"/>
+    <hyperlink ref="F9" r:id="rId14" xr:uid="{C183A590-A05C-41C9-B519-97966FA0247A}"/>
+    <hyperlink ref="E9" r:id="rId15" xr:uid="{55C44E4C-BBF3-48E4-810E-3E6201DFA36F}"/>
+    <hyperlink ref="E12" r:id="rId16" xr:uid="{4D98D30F-8FA5-41BA-8549-53880B736D57}"/>
+    <hyperlink ref="E13" r:id="rId17" xr:uid="{CC2124F1-2E05-4FA3-A9AE-116040570C8D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
 </worksheet>
 </file>
--- a/Informativos/Aulas_Links_e_Datas_de_Exercícios.xlsx
+++ b/Informativos/Aulas_Links_e_Datas_de_Exercícios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\GitHub\Segundo-Semestre-unip\Informativos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7980BE-F335-4F4A-8069-63ABBFC3B2BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB88019B-BB6F-4DEB-9579-C7BFB2A4AF63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B392B0C-D6AE-496D-B771-9E3827DB5614}"/>
   </bookViews>
@@ -130,12 +130,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{ADC9AF74-6C7C-47A9-A5CA-A7F506412C58}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gabriel Toth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>Matéria</t>
   </si>
@@ -300,6 +324,12 @@
   </si>
   <si>
     <t>Lógica Matemática</t>
+  </si>
+  <si>
+    <t>https://classroom.google.com/c/MTY5NTM4NzE4Nzc4?cjc=g25u7he</t>
+  </si>
+  <si>
+    <t>https://classroom.google.com/c/MTY5NTMzOTE4OTQy?cjc=a7kgkvx</t>
   </si>
 </sst>
 </file>
@@ -415,7 +445,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="11" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,17 +471,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -468,6 +489,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -790,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5F0132-CC32-4F83-91F0-0A921A48D74F}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -877,13 +910,13 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="18">
         <v>0.35069444444444442</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -892,7 +925,7 @@
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="2">
@@ -910,49 +943,49 @@
       <c r="K2" s="10">
         <v>44088</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="14">
         <v>44095</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="15">
         <v>44102</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="14">
         <v>44109</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="15">
         <v>44116</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="14">
         <v>44123</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="15">
         <v>44130</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="14">
         <v>44137</v>
       </c>
-      <c r="S2" s="18">
+      <c r="S2" s="15">
         <v>44144</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="14">
         <v>44151</v>
       </c>
-      <c r="U2" s="18">
+      <c r="U2" s="15">
         <v>44158</v>
       </c>
-      <c r="V2" s="17">
+      <c r="V2" s="14">
         <v>44165</v>
       </c>
-      <c r="W2" s="18">
+      <c r="W2" s="15">
         <v>44172</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="21">
+      <c r="A3" s="22"/>
+      <c r="B3" s="18">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -961,7 +994,7 @@
       <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="2">
         <v>44060</v>
       </c>
@@ -977,51 +1010,51 @@
       <c r="K3" s="10">
         <v>44088</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="14">
         <v>44095</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="15">
         <v>44102</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="14">
         <v>44109</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="15">
         <v>44116</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="14">
         <v>44123</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="15">
         <v>44130</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="14">
         <v>44137</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="15">
         <v>44144</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="14">
         <v>44151</v>
       </c>
-      <c r="U3" s="18">
+      <c r="U3" s="15">
         <v>44158</v>
       </c>
-      <c r="V3" s="17">
+      <c r="V3" s="14">
         <v>44165</v>
       </c>
-      <c r="W3" s="18">
+      <c r="W3" s="15">
         <v>44172</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <v>0.35069444444444442</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1030,67 +1063,67 @@
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2">
         <v>44061</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <v>44068</v>
       </c>
       <c r="I4" s="2">
         <v>44075</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="13">
         <v>44082</v>
       </c>
       <c r="K4" s="2">
         <v>44089</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="13">
         <v>44096</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="14">
         <v>44103</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="13">
         <v>44110</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="14">
         <v>44117</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="13">
         <v>44124</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="14">
         <v>44131</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="13">
         <v>44138</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="14">
         <v>44145</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="13">
         <v>44152</v>
       </c>
-      <c r="U4" s="17">
+      <c r="U4" s="14">
         <v>44159</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="13">
         <v>44166</v>
       </c>
-      <c r="W4" s="17">
+      <c r="W4" s="14">
         <v>44173</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="21">
+      <c r="A5" s="22"/>
+      <c r="B5" s="18">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1099,67 +1132,67 @@
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="2">
         <v>44061</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="13">
         <v>44068</v>
       </c>
       <c r="I5" s="2">
         <v>44075</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="13">
         <v>44082</v>
       </c>
       <c r="K5" s="2">
         <v>44089</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="13">
         <v>44096</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="14">
         <v>44103</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="13">
         <v>44110</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="14">
         <v>44117</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="13">
         <v>44124</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="14">
         <v>44131</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="13">
         <v>44138</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="14">
         <v>44145</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="13">
         <v>44152</v>
       </c>
-      <c r="U5" s="17">
+      <c r="U5" s="14">
         <v>44159</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="13">
         <v>44166</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="14">
         <v>44173</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="18">
         <v>0.35069444444444442</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1168,65 +1201,65 @@
       <c r="E6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="16">
+      <c r="F6" s="21"/>
+      <c r="G6" s="13">
         <v>44061</v>
       </c>
       <c r="H6" s="2">
         <v>44068</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="13">
         <v>44075</v>
       </c>
       <c r="J6" s="2">
         <v>44082</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="13">
         <v>44089</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="14">
         <v>44096</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="13">
         <v>44103</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="14">
         <v>44110</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="13">
         <v>44117</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="14">
         <v>44124</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="13">
         <v>44131</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="14">
         <v>44138</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="13">
         <v>44145</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="14">
         <v>44152</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="13">
         <v>44159</v>
       </c>
-      <c r="V6" s="17">
+      <c r="V6" s="14">
         <v>44166</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="13">
         <v>44173</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="21">
+      <c r="A7" s="22"/>
+      <c r="B7" s="18">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1235,56 +1268,56 @@
       <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="16">
+      <c r="F7" s="21"/>
+      <c r="G7" s="13">
         <v>44061</v>
       </c>
       <c r="H7" s="2">
         <v>44068</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="13">
         <v>44075</v>
       </c>
       <c r="J7" s="2">
         <v>44082</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="13">
         <v>44089</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="14">
         <v>44096</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="13">
         <v>44103</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="14">
         <v>44110</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="13">
         <v>44117</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="14">
         <v>44124</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="13">
         <v>44131</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="14">
         <v>44138</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="13">
         <v>44145</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="14">
         <v>44152</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="13">
         <v>44159</v>
       </c>
-      <c r="V7" s="17">
+      <c r="V7" s="14">
         <v>44166</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="13">
         <v>44173</v>
       </c>
     </row>
@@ -1292,10 +1325,10 @@
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="18">
         <v>0.35069444444444442</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1319,43 +1352,43 @@
       <c r="J8" s="2">
         <v>44083</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="2">
         <v>44090</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="14">
         <v>44097</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="16">
         <v>44104</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="14">
         <v>44111</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="14">
         <v>44118</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="14">
         <v>44125</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="14">
         <v>44132</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="14">
         <v>44139</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="14">
         <v>44146</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="14">
         <v>44153</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="14">
         <v>44160</v>
       </c>
-      <c r="V8" s="17">
+      <c r="V8" s="14">
         <v>44167</v>
       </c>
-      <c r="W8" s="17">
+      <c r="W8" s="14">
         <v>44174</v>
       </c>
     </row>
@@ -1363,10 +1396,10 @@
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="18">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1390,54 +1423,54 @@
       <c r="J9" s="2">
         <v>44083</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="2">
         <v>44090</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="14">
         <v>44097</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="16">
         <v>44104</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="14">
         <v>44111</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="14">
         <v>44118</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="14">
         <v>44125</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="14">
         <v>44132</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="14">
         <v>44139</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="14">
         <v>44146</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="14">
         <v>44153</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="14">
         <v>44160</v>
       </c>
-      <c r="V9" s="17">
+      <c r="V9" s="14">
         <v>44167</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="14">
         <v>44174</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="18">
         <v>0.35069444444444442</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1446,7 +1479,7 @@
       <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="2">
@@ -1461,52 +1494,52 @@
       <c r="J10" s="2">
         <v>44084</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="2">
         <v>44091</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="14">
         <v>44098</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="14">
         <v>44105</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="14">
         <v>44112</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="14">
         <v>44119</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="14">
         <v>44126</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="14">
         <v>44133</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="14">
         <v>44140</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="14">
         <v>44147</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="14">
         <v>44154</v>
       </c>
-      <c r="U10" s="17">
+      <c r="U10" s="14">
         <v>44161</v>
       </c>
-      <c r="V10" s="17">
+      <c r="V10" s="14">
         <v>44168</v>
       </c>
-      <c r="W10" s="17">
+      <c r="W10" s="14">
         <v>44175</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="21">
+      <c r="A11" s="20"/>
+      <c r="B11" s="18">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1515,7 +1548,7 @@
       <c r="E11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="2">
         <v>44063</v>
       </c>
@@ -1528,43 +1561,43 @@
       <c r="J11" s="2">
         <v>44084</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="2">
         <v>44091</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="14">
         <v>44098</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="14">
         <v>44105</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="14">
         <v>44112</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="14">
         <v>44119</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="14">
         <v>44126</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="14">
         <v>44133</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="14">
         <v>44140</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="14">
         <v>44147</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T11" s="14">
         <v>44154</v>
       </c>
-      <c r="U11" s="17">
+      <c r="U11" s="14">
         <v>44161</v>
       </c>
-      <c r="V11" s="17">
+      <c r="V11" s="14">
         <v>44168</v>
       </c>
-      <c r="W11" s="17">
+      <c r="W11" s="14">
         <v>44175</v>
       </c>
     </row>
@@ -1572,31 +1605,34 @@
       <c r="A12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="18">
         <v>0.35069444444444442</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="16">
+      <c r="F12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="13">
         <v>44064</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="13">
         <v>44071</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="13">
         <v>44078</v>
       </c>
       <c r="J12" s="2">
         <v>44085</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="2">
         <v>44092</v>
       </c>
       <c r="L12" s="6">
@@ -1640,31 +1676,34 @@
       <c r="A13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="18">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="16">
+      <c r="F13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="13">
         <v>44064</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="13">
         <v>44071</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="13">
         <v>44078</v>
       </c>
       <c r="J13" s="2">
         <v>44085</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="10">
         <v>44092</v>
       </c>
       <c r="L13" s="6">
@@ -1705,46 +1744,46 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="K14" s="15"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="K15" s="15"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="K16" s="15"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K17" s="15"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K18" s="15"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K19" s="15"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K20" s="15"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K21" s="15"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K22" s="15"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K23" s="15"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K24" s="15"/>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K25" s="15"/>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K26" s="15"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K27" s="15"/>
+      <c r="K27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1775,9 +1814,11 @@
     <hyperlink ref="E9" r:id="rId15" xr:uid="{55C44E4C-BBF3-48E4-810E-3E6201DFA36F}"/>
     <hyperlink ref="E12" r:id="rId16" xr:uid="{4D98D30F-8FA5-41BA-8549-53880B736D57}"/>
     <hyperlink ref="E13" r:id="rId17" xr:uid="{CC2124F1-2E05-4FA3-A9AE-116040570C8D}"/>
+    <hyperlink ref="F13" r:id="rId18" xr:uid="{9FFBF530-9A54-4807-AC32-23129327B516}"/>
+    <hyperlink ref="F12" r:id="rId19" xr:uid="{F09D3127-7ED4-4129-9D5C-84DDAA3F8B1C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId18"/>
-  <legacyDrawing r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId20"/>
+  <legacyDrawing r:id="rId21"/>
 </worksheet>
 </file>
--- a/Informativos/Aulas_Links_e_Datas_de_Exercícios.xlsx
+++ b/Informativos/Aulas_Links_e_Datas_de_Exercícios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\GitHub\Segundo-Semestre-unip\Informativos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB88019B-BB6F-4DEB-9579-C7BFB2A4AF63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CC3172-F912-43B3-AE44-70C51EA10035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B392B0C-D6AE-496D-B771-9E3827DB5614}"/>
   </bookViews>
@@ -445,7 +445,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="11" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,6 +489,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -823,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5F0132-CC32-4F83-91F0-0A921A48D74F}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -832,8 +835,8 @@
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" customWidth="1"/>
     <col min="16" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -910,7 +913,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="18">
@@ -925,7 +928,7 @@
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="2">
@@ -943,10 +946,10 @@
       <c r="K2" s="10">
         <v>44088</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="10">
         <v>44095</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="10">
         <v>44102</v>
       </c>
       <c r="N2" s="14">
@@ -981,7 +984,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="18">
         <v>0.41666666666666669</v>
       </c>
@@ -991,10 +994,10 @@
       <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="2">
         <v>44060</v>
       </c>
@@ -1010,10 +1013,10 @@
       <c r="K3" s="10">
         <v>44088</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="10">
         <v>44095</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="10">
         <v>44102</v>
       </c>
       <c r="N3" s="14">
@@ -1048,7 +1051,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="18">
@@ -1063,7 +1066,7 @@
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2">
@@ -1119,7 +1122,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="18">
         <v>0.41666666666666669</v>
       </c>
@@ -1132,7 +1135,7 @@
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="2">
         <v>44061</v>
       </c>
@@ -1186,7 +1189,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="18">
@@ -1201,7 +1204,7 @@
       <c r="E6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="13">
         <v>44061</v>
       </c>
@@ -1217,7 +1220,7 @@
       <c r="K6" s="13">
         <v>44089</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="2">
         <v>44096</v>
       </c>
       <c r="M6" s="13">
@@ -1255,7 +1258,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="18">
         <v>0.41666666666666669</v>
       </c>
@@ -1268,7 +1271,7 @@
       <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="13">
         <v>44061</v>
       </c>
@@ -1284,7 +1287,7 @@
       <c r="K7" s="13">
         <v>44089</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="2">
         <v>44096</v>
       </c>
       <c r="M7" s="13">
@@ -1355,7 +1358,7 @@
       <c r="K8" s="2">
         <v>44090</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="2">
         <v>44097</v>
       </c>
       <c r="M8" s="16">
@@ -1426,7 +1429,7 @@
       <c r="K9" s="2">
         <v>44090</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="2">
         <v>44097</v>
       </c>
       <c r="M9" s="16">
@@ -1464,7 +1467,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="18">
@@ -1479,7 +1482,7 @@
       <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="22" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="2">
@@ -1497,7 +1500,7 @@
       <c r="K10" s="2">
         <v>44091</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="2">
         <v>44098</v>
       </c>
       <c r="M10" s="14">
@@ -1535,7 +1538,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="18">
         <v>0.41666666666666669</v>
       </c>
@@ -1548,7 +1551,7 @@
       <c r="E11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="2">
         <v>44063</v>
       </c>
@@ -1564,7 +1567,7 @@
       <c r="K11" s="2">
         <v>44091</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="2">
         <v>44098</v>
       </c>
       <c r="M11" s="14">
@@ -1635,7 +1638,7 @@
       <c r="K12" s="2">
         <v>44092</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="2">
         <v>44099</v>
       </c>
       <c r="M12" s="6">
@@ -1706,7 +1709,7 @@
       <c r="K13" s="10">
         <v>44092</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="2">
         <v>44099</v>
       </c>
       <c r="M13" s="6">

--- a/Informativos/Aulas_Links_e_Datas_de_Exercícios.xlsx
+++ b/Informativos/Aulas_Links_e_Datas_de_Exercícios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\GitHub\Segundo-Semestre-unip\Informativos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CC3172-F912-43B3-AE44-70C51EA10035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095D7869-DC89-4E50-9265-03078D6E3EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B392B0C-D6AE-496D-B771-9E3827DB5614}"/>
   </bookViews>
@@ -445,7 +445,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="11" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,6 +489,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -826,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5F0132-CC32-4F83-91F0-0A921A48D74F}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -913,7 +916,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="18">
@@ -928,7 +931,7 @@
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="25" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="2">
@@ -984,7 +987,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="18">
         <v>0.41666666666666669</v>
       </c>
@@ -997,7 +1000,7 @@
       <c r="E3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="2">
         <v>44060</v>
       </c>
@@ -1051,7 +1054,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="18">
@@ -1066,7 +1069,7 @@
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2">
@@ -1122,7 +1125,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="18">
         <v>0.41666666666666669</v>
       </c>
@@ -1132,10 +1135,10 @@
       <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="2">
         <v>44061</v>
       </c>
@@ -1189,7 +1192,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="18">
@@ -1204,7 +1207,7 @@
       <c r="E6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="13">
         <v>44061</v>
       </c>
@@ -1258,7 +1261,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="18">
         <v>0.41666666666666669</v>
       </c>
@@ -1271,7 +1274,7 @@
       <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="13">
         <v>44061</v>
       </c>
@@ -1467,7 +1470,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="18">
@@ -1482,7 +1485,7 @@
       <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="23" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="2">
@@ -1538,7 +1541,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="18">
         <v>0.41666666666666669</v>
       </c>
@@ -1551,7 +1554,7 @@
       <c r="E11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="2">
         <v>44063</v>
       </c>
